--- a/Fase 2/Backlog Divisions.xlsx
+++ b/Fase 2/Backlog Divisions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="2740" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Feature ID</t>
   </si>
@@ -44,40 +47,7 @@
     <t>Schatting</t>
   </si>
   <si>
-    <t>Buying</t>
-  </si>
-  <si>
     <t>Toegewezen aan</t>
-  </si>
-  <si>
-    <t>Buying wil een duidelijke opsplitsing tussen Non-Seasonal en Seasonal Documents</t>
-  </si>
-  <si>
-    <t>Inrichten van een landingspage voor Buying met volgende componenten: Web Parts met links voor seasonal docs en een overzicht per subdivisie om te navigeren naar het seizoen</t>
-  </si>
-  <si>
-    <t>Custom: CGKLLIST</t>
-  </si>
-  <si>
-    <t>Cegeka</t>
-  </si>
-  <si>
-    <t>Buying wil documenten beheren per Season, per Subdivisie</t>
-  </si>
-  <si>
-    <t>Opzet van CGKLLIST die voor alle 3 de divisies site collections uitrolt voor 1 seizoen met de juiste metadata</t>
-  </si>
-  <si>
-    <t>Buying wil non-seasonal documents bewaren per divisie</t>
-  </si>
-  <si>
-    <t>Opzet van een Document Library per subdivisie</t>
-  </si>
-  <si>
-    <t>OOTB</t>
-  </si>
-  <si>
-    <t>JBC</t>
   </si>
 </sst>
 </file>
@@ -427,7 +397,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,67 +430,22 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
